--- a/Data/Production Index proportion averages.xlsx
+++ b/Data/Production Index proportion averages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gallarusindustrysolutions-my.sharepoint.com/personal/sclifford_gis_ie/Documents/MscDataAnalytics/MScDataAnalyticsCA2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{6487956A-4BE3-4C94-ABA6-82FBDBBDE398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E76B9D6-70FE-468B-B277-5F81759EBCED}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{6487956A-4BE3-4C94-ABA6-82FBDBBDE398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83A96453-CF08-48D7-B505-F3337773EAA5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{064F13EF-9F6B-4298-BFF2-1753CC9CC1F9}"/>
   </bookViews>
@@ -80,15 +80,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>Production Index Proportion of Total</t>
-  </si>
-  <si>
-    <t>Confidence Irelan above Avg.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Confidence Interval = (0.0063, 0.0067)</t>
   </si>
   <si>
@@ -165,6 +156,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Confidence Interval = (0.0067, 0.0083)</t>
+  </si>
+  <si>
+    <t>CI per Quarter</t>
+  </si>
+  <si>
+    <t>Production Index Proportion of Year</t>
+  </si>
+  <si>
+    <t>Confidence Ireland above Avg.</t>
   </si>
 </sst>
 </file>
@@ -774,13 +774,13 @@
         <v>13</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -805,16 +805,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -822,16 +822,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -839,16 +839,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -856,16 +856,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -873,16 +873,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -890,16 +890,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -907,16 +907,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -924,16 +924,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -941,16 +941,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -958,16 +958,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -975,16 +975,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -992,13 +992,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
